--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_5_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_5_sine_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.36000000000037</v>
+        <v>24.27000000000035</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.145358501691124e-16</v>
+        <v>4.000803692342906e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>39.27946085381729</v>
+        <v>42.59076941581456</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[32.34382751885326, 46.21509418878132]</t>
+          <t>[35.37354056381173, 49.807998267817396]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.666710817219809</v>
+        <v>1.465447624197041</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4654476241970391, 1.8679740102425795]</t>
+          <t>[1.2767633807381937, 1.654131867655888]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>56.69668204423549</v>
+        <v>62.31004276550488</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[52.23457601192585, 61.15878807654512]</t>
+          <t>[57.70573334340362, 66.91435218760614]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.89813813813841</v>
+        <v>18.6094294294297</v>
       </c>
       <c r="X2" t="n">
-        <v>17.1178378378381</v>
+        <v>17.88060060060086</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.67843843843873</v>
+        <v>19.33825825825854</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +652,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.15000000000049</v>
+        <v>25.1900000000005</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.145358501691124e-16</v>
+        <v>6.805964901916669e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>44.19872549692966</v>
+        <v>33.55921784371401</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[34.19315304662119, 54.20429794723813]</t>
+          <t>[24.136390407355407, 42.98204528007261]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.726618847897043e-11</v>
       </c>
       <c r="N3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.726618847897043e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.792526803190927</v>
+        <v>-2.767368904063082</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.0315268449054655, -2.553526761476389]</t>
+          <t>[-3.056684744033313, -2.47805306409285]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>60.98414217798537</v>
+        <v>55.07985016837578</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[55.547520779803804, 66.42076357616693]</t>
+          <t>[49.99652482080272, 60.16317551594885]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>11.177777777778</v>
+        <v>11.09469469469492</v>
       </c>
       <c r="X3" t="n">
-        <v>10.22112112112132</v>
+        <v>9.934794794794994</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.13443443443467</v>
+        <v>12.25459459459484</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_5_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_5_sine_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.27000000000035</v>
+        <v>24.30000000000036</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>4.000803692342906e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>2.34347867994756e-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.06511881849886891</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>42.59076941581456</v>
+        <v>34.16824223963342</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[35.37354056381173, 49.807998267817396]</t>
+          <t>[27.307247144503442, 41.0292373347634]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +601,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.465447624197041</v>
+        <v>1.528342372016657</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2767633807381937, 1.654131867655888]</t>
+          <t>[1.2893423303021176, 1.7673424137311962]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>62.31004276550488</v>
+        <v>55.57537137656782</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[57.70573334340362, 66.91435218760614]</t>
+          <t>[51.11106676709142, 60.03967598604421]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.6094294294297</v>
+        <v>18.38918918918946</v>
       </c>
       <c r="X2" t="n">
-        <v>17.88060060060086</v>
+        <v>17.46486486486512</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.33825825825854</v>
+        <v>19.3135135135138</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +654,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.1900000000005</v>
+        <v>25.1700000000005</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>6.805964901916669e-16</v>
+        <v>2.34347867994756e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>33.55921784371401</v>
+        <v>45.47573890920888</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[24.136390407355407, 42.98204528007261]</t>
+          <t>[36.32933368586666, 54.6221441325511]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.726618847897043e-11</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.726618847897043e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.767368904063082</v>
+        <v>-2.830263651882697</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.056684744033313, -2.47805306409285]</t>
+          <t>[-3.056684744033313, -2.6038425597320805]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>55.07985016837578</v>
+        <v>57.63386540601378</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.99652482080272, 60.16317551594885]</t>
+          <t>[52.317080242406135, 62.95065056962143]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>11.09469469469492</v>
+        <v>11.33783783783806</v>
       </c>
       <c r="X3" t="n">
-        <v>9.934794794794994</v>
+        <v>10.43081081081102</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.25459459459484</v>
+        <v>12.24486486486511</v>
       </c>
     </row>
   </sheetData>
